--- a/biology/Botanique/Solanum/Solanum.xlsx
+++ b/biology/Botanique/Solanum/Solanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Solanum est un genre de plantes dicotylédones de la famille des Solanaceae, sous-famille des Solanoideae, à répartition quasi-cosmopolite, mais présent surtout dans les régions tropicales d'Amérique. Ce genre, qui compte environ 1 200 espèces acceptées, est de loin le plus important de la famille des Solanaceae et se classe au 9e rang des plus grands genres d'Angiospermes[2]. C'est le genre type de la famille à laquelle il a donné son nom[3].
+Solanum est un genre de plantes dicotylédones de la famille des Solanaceae, sous-famille des Solanoideae, à répartition quasi-cosmopolite, mais présent surtout dans les régions tropicales d'Amérique. Ce genre, qui compte environ 1 200 espèces acceptées, est de loin le plus important de la famille des Solanaceae et se classe au 9e rang des plus grands genres d'Angiospermes. C'est le genre type de la famille à laquelle il a donné son nom.
 Les plantes du genre Solanum sont des plantes herbacées ou ligneuses (arbustes ou arbres), parfois grimpantes, généralement pubescentes, aux feuilles alternes au limbe entier ou découpé (pennatiséqué). Les fleurs, bisexuées, actinomorphes, aux anthères habituellement conniventes autour du style, sont groupées en inflorescences cymeuses. Les fruits sont généralement des baies globuleuses ou ovoïdes, contenant des graines en nombre variable, généralement aplaties.
-Différentes espèces de ce genre sont cultivées, soit à des fins alimentaires (comme la pomme de terre, la tomate ou l'aubergine), soit à des fins ornementales. D'autres espèces sont utilisées à des fins médicinales[4].
-Toutes  les espèces du genre Solanum sont toxiques à un certain degré[5], 
+Différentes espèces de ce genre sont cultivées, soit à des fins alimentaires (comme la pomme de terre, la tomate ou l'aubergine), soit à des fins ornementales. D'autres espèces sont utilisées à des fins médicinales.
+Toutes  les espèces du genre Solanum sont toxiques à un certain degré, 
 comme la morelle faux jasmin (ornementale) et la douce-amère, car elles contiennent dans tous leurs organes (notamment dans les baies, mais aussi dans le feuillage), mais à des concentrations variables, des substances toxiques telles des glycoalcaloïdes et des saponines stéroïdiques.
 </t>
         </is>
@@ -516,10 +528,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Solanum », est un terme latin attesté d'abord chez Celse (De Medicina [II, 33][6]) puis chez Pline l'Ancien (Historia naturalis [21, 177 et 27, 132]), équivalent du terme grec στρύχνος (strychnos), attesté chez Théophraste et Dioscoride, qui désignait la morelle noire (Solanum nigrum) [7]. Strychnos a été repris par Linné pour désigner un autre genre botanique sans parenté avec les Solanaceae. 
-Solanum (comme solanine) pourrait dériver du latin sol, « soleil », sans qu'on en connaisse la raison car les espèces ne sont pas connues pour être héliophiles. Une autre hypothèse est qu'il vienne du latin solare, « soulager », en référence aux propriétés émollientes et adoucissantes des racines[8]. Le nom vernaculaire de morelle vient du latin médiéval maurella, littéralement « petit maure », en référence à la baie noire comme un Maure de Solanum nigrum[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Solanum », est un terme latin attesté d'abord chez Celse (De Medicina [II, 33]) puis chez Pline l'Ancien (Historia naturalis [21, 177 et 27, 132]), équivalent du terme grec στρύχνος (strychnos), attesté chez Théophraste et Dioscoride, qui désignait la morelle noire (Solanum nigrum) . Strychnos a été repris par Linné pour désigner un autre genre botanique sans parenté avec les Solanaceae. 
+Solanum (comme solanine) pourrait dériver du latin sol, « soleil », sans qu'on en connaisse la raison car les espèces ne sont pas connues pour être héliophiles. Une autre hypothèse est qu'il vienne du latin solare, « soulager », en référence aux propriétés émollientes et adoucissantes des racines. Le nom vernaculaire de morelle vient du latin médiéval maurella, littéralement « petit maure », en référence à la baie noire comme un Maure de Solanum nigrum.
 </t>
         </is>
       </c>
@@ -548,17 +562,17 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre botanique, très important dans la nature, compte environ 1 500 espèces[10]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre botanique, très important dans la nature, compte environ 1 500 espèces. 
 Il comporte des plantes herbacées ou des arbustes à feuilles généralement alternes, parfois opposées. 
 L'inflorescence est une cyme, le plus souvent unipare. 
 Les fleurs sont hermaphrodites, à corolle étoilée avec de cinq à huit pétales souvent réfléchis (retournés vers l'arrière). 
 Les étamines saillantes forment un cône autour du gynécée. 
 L'ovaire est supère. 
 Les fruits sont des baies.
-Cytologie
-Le nombre chromosomique de base du genre Solanum est x= 12. La plupart des espèces sont diploïdes (2n = 2x =24 chromosomes), mais il existe aussi des espèces tétra-, hexa- et octoploïdes[11].
 </t>
         </is>
       </c>
@@ -584,10 +598,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques du genre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre chromosomique de base du genre Solanum est x= 12. La plupart des espèces sont diploïdes (2n = 2x =24 chromosomes), mais il existe aussi des espèces tétra-, hexa- et octoploïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solanum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flore européenne (espèces souvent introduites)
@@ -637,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Solanum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Solanum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Plantes envahissantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Solanum gilo
 Solanum mauritianum
@@ -670,36 +725,73 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Solanum</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Solanum</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le genre Solanum a été créé dans la nomenclature binominale par Linné et publié en 1753 dans son Species plantarum (vol. 1, p. 184)[12], puis en 1754 dans son Genera plantarum (nº 224, p. 85) [13]. Ce genre avait été publié précédemment par Gaspard Bauhin dans son Pinax theatri botanici (Lib. V, sect .1, p. 166)[14], puis par Tournefort dans ses Élémens de botanique : ou Méthode pour connoître les plantes (vol. 1, classe II, sect. VI, p. 124)[15].
-Ce genre, qui regroupe environ la moitié des espèces de la famille des Solanaceae, est classé dans la sous-famille des Solanoideae, tribu des Solaneae (deux taxons largement monophylétiques)[16].
-Synonymes
-Selon KewScience[11] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Solanum a été créé dans la nomenclature binominale par Linné et publié en 1753 dans son Species plantarum (vol. 1, p. 184), puis en 1754 dans son Genera plantarum (nº 224, p. 85) . Ce genre avait été publié précédemment par Gaspard Bauhin dans son Pinax theatri botanici (Lib. V, sect .1, p. 166), puis par Tournefort dans ses Élémens de botanique : ou Méthode pour connoître les plantes (vol. 1, classe II, sect. VI, p. 124).
+Ce genre, qui regroupe environ la moitié des espèces de la famille des Solanaceae, est classé dans la sous-famille des Solanoideae, tribu des Solaneae (deux taxons largement monophylétiques).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solanum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon KewScience :
 Amatula Medik.
 Androcera Nutt.
 Antimion Raf.
@@ -730,8 +822,43 @@
 Solanocharis Bitter
 Solanopsis Börner
 Triguera Cav.
-Liste d'espèces
-Selon The Plant List            (24 août 2019)[17] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solanum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 août 2019) :
 Solanum abancayense Ochoa
 Solanum abitaguense S. Knapp
 Solanum absconditum Agra
@@ -1856,7 +1983,52 @@
 Solanum turneroides Chodat
 Solanum tweedianum Hook.
 Solanum ueleense De Wild.
-Solanum ugentii Hawk</t>
+Solanum ugentii Hawkes &amp; K.A. Okada
+Solanum ukerewense Bitter
+Solanum uleanum Bitter
+Solanum ulei Morton
+Solanum ulugurense Dammer
+Solanum umbellatum Mill.
+Solanum umbelliferum Eschsch.
+Solanum umbratile I.M. Johnst.
+Solanum uncinatum Schrank
+Solanum uncinellum Lindl.
+Solanum undatum Lam.
+Solanum unifoliatum S. Knapp
+Solanum unilobum (Rusby) Bohs
+Solanum uollense Pic.Serm.
+Solanum urosepalum Dammer
+Solanum ursinum Rusby
+Solanum urticans Dunal
+Solanum urubambae Juz.
+Solanum usaramense Dammer
+Solanum utile Klotzsch
+Solanum vacciniiflorum Standl. &amp; L.O. Williams
+Solanum vaillantii Dunal
+Solanum valdiviense Dunal
+Solanum valerioanum C.V. Morton &amp; Standl.
+Solanum validinervium Benitez &amp; S. Knapp
+Solanum vallis-mexici Juz.
+Solanum vanheurckii Müll. Arg.
+Solanum variabile Mart.
+Solanum velardei Ochoa
+Solanum velleum Roem. &amp; Schult.
+Solanum vellozianum Dunal
+Solanum velutinum Dunal
+Solanum velutissimum Rusby
+Solanum venosum Dunal
+Solanum venturii Hawkes &amp; Hjerting
+Solanum vernei Bitter &amp; Wittm.
+Solanum verrucosum Schltdl.
+Solanum vervoorstii L.B. Sm.
+Solanum vestissimum Dunal
+Solanum viarum Dunal
+Solanum vidaurrei Cárdenas
+Solanum villosum Mill.
+Solanum villuspetalum Vargas
+Solanum violaceimarmoratum Bitter
+Solanum violaceum Ortega
+Solanum violifolium S</t>
         </is>
       </c>
     </row>
